--- a/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.856353520605602</v>
+        <v>-3.551143789152818</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.84839835980655</v>
+        <v>-13.59224391313829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.251022774683013</v>
+        <v>-2.220816544831717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.702080265866224</v>
+        <v>-9.67067919817811</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.921418129592725</v>
+        <v>-1.027954307782519</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.28176738889834</v>
+        <v>-9.728906053162197</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.54227853811588</v>
+        <v>13.1772795097088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.360656290486313</v>
+        <v>2.94617337340251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.50843844679585</v>
+        <v>14.08458380785351</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.106715676880748</v>
+        <v>5.65667669838347</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.56966811654519</v>
+        <v>11.58001089074472</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.140085537983298</v>
+        <v>1.948269733237904</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08723317282653613</v>
+        <v>-0.07850272342140924</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2861394654132763</v>
+        <v>-0.3011638842272516</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07298860897130301</v>
+        <v>-0.07031747158702567</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3043437840194271</v>
+        <v>-0.3080592482541814</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0245506366023724</v>
+        <v>-0.02439883760253608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2502422116330321</v>
+        <v>-0.2586461853678552</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3598788038785997</v>
+        <v>0.3596731761370388</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09249370312129004</v>
+        <v>0.07638422062838982</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6065474448057984</v>
+        <v>0.5728249858487126</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2627327652161284</v>
+        <v>0.2513669749562032</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.361608310286209</v>
+        <v>0.3716302069627354</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06218761987852851</v>
+        <v>0.0630758843295819</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.799291428693478</v>
+        <v>-4.192303314593486</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.524968034265962</v>
+        <v>-3.648952722866709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2536938703937236</v>
+        <v>-0.1781066824876607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.77709494752681</v>
+        <v>-1.848530655264765</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.563820745907931</v>
+        <v>-0.6738112663040938</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.345530244212827</v>
+        <v>-1.029701523620008</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.557636936346658</v>
+        <v>8.426454456847065</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.257372180619038</v>
+        <v>8.787497103891363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.29554484504126</v>
+        <v>11.13130955158126</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.020974816658809</v>
+        <v>8.789171635264692</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.043563797199234</v>
+        <v>7.926971543408875</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.702732708099314</v>
+        <v>7.443048106078969</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08753826718782692</v>
+        <v>-0.09502382944268467</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08291927621707414</v>
+        <v>-0.08491818640982056</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0122547926834742</v>
+        <v>-0.006675927113586107</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.069457308268698</v>
+        <v>-0.06686695039822793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02087492642932545</v>
+        <v>-0.01857291891229921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04033323810205077</v>
+        <v>-0.03042879705564547</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2666446454691359</v>
+        <v>0.2402394845763788</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2626507748070532</v>
+        <v>0.2463461941869086</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.531421998428787</v>
+        <v>0.5438617353904389</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4334807005543671</v>
+        <v>0.4207429428413913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2755817200507038</v>
+        <v>0.2766785232030106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2690251202173345</v>
+        <v>0.2608426013397406</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.56088283112613</v>
+        <v>-14.48275978028276</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-23.28670307189373</v>
+        <v>-23.48597190769745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.728035519841473</v>
+        <v>-9.795106326262754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.07113170004737</v>
+        <v>-11.26047172489266</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.00760601889846</v>
+        <v>-10.20258127491316</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.21799925162683</v>
+        <v>-14.81071951878078</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3733555714381602</v>
+        <v>1.070570310940054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.452219006203492</v>
+        <v>-7.907547167168582</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.645495076687876</v>
+        <v>4.404317836831316</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.405247667420608</v>
+        <v>2.278526292144785</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6517952150041976</v>
+        <v>-0.08945098455855897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.761865676106227</v>
+        <v>-4.740815512432365</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2919887572814138</v>
+        <v>-0.2890219792751162</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4675977415277724</v>
+        <v>-0.4719553622948597</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3126660304069903</v>
+        <v>-0.309680451145441</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3389366456096374</v>
+        <v>-0.3525818971697233</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.254007167203189</v>
+        <v>-0.2564425134322413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3574898574245561</v>
+        <v>-0.3727393802245011</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.008564039725958667</v>
+        <v>0.02463246949073193</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2053005590993069</v>
+        <v>-0.1918406092794109</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1846954593131128</v>
+        <v>0.1741795621090922</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09689479543938798</v>
+        <v>0.08700942700694486</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01899806239347135</v>
+        <v>-0.001363099192039166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1340013868484462</v>
+        <v>-0.1358774081362193</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.01784425034649</v>
+        <v>-19.7847814121719</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.35369423431417</v>
+        <v>-16.13220381691859</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.050120920812214</v>
+        <v>-7.716287118553669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.965033108156581</v>
+        <v>-7.472427392342578</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.76657296080277</v>
+        <v>-12.43277050143065</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.658057365358477</v>
+        <v>-10.14871269844855</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.316558730046137</v>
+        <v>-5.228116533810076</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.788901191373275</v>
+        <v>-1.278871011659495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.916461604325244</v>
+        <v>4.915862410169754</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.502241586434685</v>
+        <v>5.926381212720436</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.182945867953599</v>
+        <v>-2.255873393307573</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1213539005684604</v>
+        <v>0.1215927052867161</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3876312379866094</v>
+        <v>-0.3931605932574917</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3163930880819085</v>
+        <v>-0.3187130165543787</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2530609400637083</v>
+        <v>-0.2504248339891882</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2232897222567035</v>
+        <v>-0.2356602792435238</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2913947774403146</v>
+        <v>-0.299518811780368</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2391964653668863</v>
+        <v>-0.250681382040877</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1011257509592088</v>
+        <v>-0.1201010035055161</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.03810894173623754</v>
+        <v>-0.0300880684969588</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1951243136606039</v>
+        <v>0.2049889697710914</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2586832708486397</v>
+        <v>0.2331803779481349</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0631919160508853</v>
+        <v>-0.06170395926456124</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.000967551556608442</v>
+        <v>0.003646453715895675</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.49868137846793</v>
+        <v>-8.816335820677521</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.04662508162001</v>
+        <v>-10.17403255303257</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.021948380888878</v>
+        <v>-7.704109692442477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.76763952473156</v>
+        <v>-11.6826583348844</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.826220654942856</v>
+        <v>-5.902640717986283</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.234842233441988</v>
+        <v>-8.866739239460747</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.83682018386941</v>
+        <v>11.49002508569061</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.168287209737104</v>
+        <v>9.940375445011963</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.985950451761925</v>
+        <v>10.03309039461118</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.732645990877281</v>
+        <v>5.430981460765735</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.453784938147967</v>
+        <v>7.907947813310495</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.772270173232956</v>
+        <v>4.537306416375125</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.178656988222905</v>
+        <v>-0.1894304794001112</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2371744663135388</v>
+        <v>-0.2195073834781684</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2204845010283989</v>
+        <v>-0.2256556664298119</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3480615654506398</v>
+        <v>-0.341093121402622</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1535657005926438</v>
+        <v>-0.1567103673771497</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2137292796622954</v>
+        <v>-0.2313571040433409</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3061686236551463</v>
+        <v>0.3206101063384796</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2652746288258029</v>
+        <v>0.2689540763624967</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4318339995944434</v>
+        <v>0.421156854595351</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2365186588773868</v>
+        <v>0.233310749857994</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2332147457980653</v>
+        <v>0.2471616836847627</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1545183785588419</v>
+        <v>0.1424592544038578</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-23.79552211721786</v>
+        <v>-23.84690707088766</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.11456938419392</v>
+        <v>-20.43465756445444</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.153063863099672</v>
+        <v>-6.362282147001111</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.371233327775184</v>
+        <v>-3.677417077891265</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.6211453159744</v>
+        <v>-12.89467607127795</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.25815787286037</v>
+        <v>-10.03494005189701</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-7.992557561908921</v>
+        <v>-6.267966183761879</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.839283482030653</v>
+        <v>-3.70780031950556</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.092750163871907</v>
+        <v>7.929026066949452</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.86912389549538</v>
+        <v>10.62219498716786</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.55188388717068</v>
+        <v>-1.965982111725305</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.055651169043424</v>
+        <v>1.341640333730743</v>
       </c>
     </row>
     <row r="37">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4753040377421515</v>
+        <v>-0.4709520740987376</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4128668067387662</v>
+        <v>-0.4107922629969096</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2595415696800336</v>
+        <v>-0.2407025925926575</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1676897694861341</v>
+        <v>-0.1430098701187131</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3544372644121232</v>
+        <v>-0.3419557368443962</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2716726886550113</v>
+        <v>-0.2663757544269505</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1850732249986112</v>
+        <v>-0.1427677802614173</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.07350399977341619</v>
+        <v>-0.08947135219314008</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.34157767223789</v>
+        <v>0.3953135171838827</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5646289129321814</v>
+        <v>0.5354999897409346</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.04980782058384531</v>
+        <v>-0.05955235916885448</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03192496410680869</v>
+        <v>0.04511272595917997</v>
       </c>
     </row>
     <row r="40">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.045533582473718</v>
+        <v>-2.090301206005064</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.5696300056818</v>
+        <v>-13.23335811326716</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.472033175096721</v>
+        <v>-2.002247444896629</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.212774688243014</v>
+        <v>-5.126389830696971</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4843003824824041</v>
+        <v>-0.7864979546256199</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.330630316173468</v>
+        <v>-7.325708881598062</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.06068495322074</v>
+        <v>9.504157651340078</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.164790070468776</v>
+        <v>-1.463574431800457</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.384507235983349</v>
+        <v>7.897270753812448</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.50497194321319</v>
+        <v>4.70472307379696</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.049468591768767</v>
+        <v>7.03033999850105</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.2049246121799942</v>
+        <v>0.1078188150521625</v>
       </c>
     </row>
     <row r="43">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02544615384978345</v>
+        <v>-0.05271803800713947</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3068174112313292</v>
+        <v>-0.3262958347074008</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08890857228994746</v>
+        <v>-0.07334282177786625</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1916836062732679</v>
+        <v>-0.1841474189480417</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01443560834730994</v>
+        <v>-0.02192698757269775</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2168944319523582</v>
+        <v>-0.2188064718807555</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2835575928307308</v>
+        <v>0.2647639442050348</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.06237662644229082</v>
+        <v>-0.04203263715007294</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3600252315412497</v>
+        <v>0.3315954823192377</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2000495077646777</v>
+        <v>0.206011698370486</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2378745643582698</v>
+        <v>0.2383039418782583</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.007886039658286534</v>
+        <v>0.003327517553273892</v>
       </c>
     </row>
     <row r="46">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.915483803908202</v>
+        <v>-9.769653742413922</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-14.6532355217269</v>
+        <v>-14.90463102719958</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.479284178406406</v>
+        <v>-2.564957572928783</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.403503550659356</v>
+        <v>-1.89626429319388</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.071027495379258</v>
+        <v>-4.689739655658349</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.141176342610716</v>
+        <v>-6.977160339478957</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2672794405410998</v>
+        <v>0.5755357773123071</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.686075388726854</v>
+        <v>-4.520847015248968</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.397095690756811</v>
+        <v>5.624667708123945</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.57372679593409</v>
+        <v>6.376665460736007</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.742424937208987</v>
+        <v>1.843717874403895</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.4549825518571708</v>
+        <v>-0.6023087955948224</v>
       </c>
     </row>
     <row r="49">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2185618654473049</v>
+        <v>-0.2149405793487789</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3263435558609961</v>
+        <v>-0.3304707768300318</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1310688111228578</v>
+        <v>-0.1020606180633584</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.09297015727000056</v>
+        <v>-0.07186946508959555</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1472461615080192</v>
+        <v>-0.1361368429968788</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2031323629800733</v>
+        <v>-0.201384776042717</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.006228455448174612</v>
+        <v>0.01533893031165138</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1189184055032215</v>
+        <v>-0.1091375739826588</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3006228754729096</v>
+        <v>0.2534119011705717</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3050254070741542</v>
+        <v>0.30310653811984</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.05449917515352312</v>
+        <v>0.05769703249755438</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01053767513629949</v>
+        <v>-0.01642877398348947</v>
       </c>
     </row>
     <row r="52">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-5.12058640259259</v>
+        <v>-5.081337695461355</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-9.613193531229392</v>
+        <v>-9.770339637869107</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.1525334017222749</v>
+        <v>-0.3186418507872746</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.425052817723302</v>
+        <v>-1.478537977259147</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.985868845086793</v>
+        <v>-1.9255358645364</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.796046429952485</v>
+        <v>-4.796612315775187</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.2117924130560807</v>
+        <v>-0.0499385925289485</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-4.779998509750367</v>
+        <v>-4.854888214244625</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.015433491771693</v>
+        <v>4.118978274967229</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.760906374559943</v>
+        <v>2.715093194772499</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.332426637044434</v>
+        <v>1.325825494086806</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.55055315163039</v>
+        <v>-1.574422924698761</v>
       </c>
     </row>
     <row r="55">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1174409452394725</v>
+        <v>-0.1155805426705771</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2190070963914128</v>
+        <v>-0.2244277330976118</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.005802645161764353</v>
+        <v>-0.01081602284843174</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.05339901965960924</v>
+        <v>-0.05615396971335959</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.05770372673995874</v>
+        <v>-0.05626359254858772</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1392919903032169</v>
+        <v>-0.1390707087133861</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.004083458010875045</v>
+        <v>-0.0004734268919717833</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1153208871750345</v>
+        <v>-0.1178759615544743</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1635116726365666</v>
+        <v>0.168458911547656</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1109107463830244</v>
+        <v>0.1110525759719139</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.0398489306604507</v>
+        <v>0.04017462754279869</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.04709289305603823</v>
+        <v>-0.0481678203443866</v>
       </c>
     </row>
     <row r="58">
